--- a/src/main/resources/Backup/ARC-API-STG1.xlsx
+++ b/src/main/resources/Backup/ARC-API-STG1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" backupFile="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC24507E-8AC9-4A06-83FE-9D3275E4DD50}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132FF58E-79A0-4D0A-9187-07630AF5EBFE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STG" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
   <definedNames>
     <definedName name="ReadingTableVOC">'[1]TVOC Readings'!$34:$35</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -6552,9 +6552,6 @@
     <t>US-API-Parksmart-Parksmart-81563</t>
   </si>
   <si>
-    <t>70001114</t>
-  </si>
-  <si>
     <t>266</t>
   </si>
   <si>
@@ -6612,21 +6609,6 @@
     <t>DOCHOLDERL-1000174449</t>
   </si>
   <si>
-    <t>70001055</t>
-  </si>
-  <si>
-    <t>Bearer d0PTuBr7gIVGtbdZUPMQICfndaYoF0</t>
-  </si>
-  <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>Public Order and Safety: Fire/Police Station</t>
-  </si>
-  <si>
-    <t>API LEED v4 O+M: Existing BuildingsUS80</t>
-  </si>
-  <si>
     <t>1000174899</t>
   </si>
   <si>
@@ -6742,6 +6724,24 @@
   </si>
   <si>
     <t>2219</t>
+  </si>
+  <si>
+    <t>Bearer eqFIRChgthx3F4cuKkS9s3pRTFdeL5</t>
+  </si>
+  <si>
+    <t>Retail: Open Shopping Center</t>
+  </si>
+  <si>
+    <t>API LEED v4 O+M: Existing BuildingsUS94</t>
+  </si>
+  <si>
+    <t>1000093670</t>
+  </si>
+  <si>
+    <t>70001136</t>
+  </si>
+  <si>
+    <t>70001138</t>
   </si>
 </sst>
 </file>
@@ -7320,8 +7320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7604,13 +7604,13 @@
         <v>1552</v>
       </c>
       <c r="L2" t="s">
-        <v>2197</v>
+        <v>2191</v>
       </c>
       <c r="M2" t="s">
-        <v>2198</v>
+        <v>2192</v>
       </c>
       <c r="N2" t="s">
-        <v>2196</v>
+        <v>2190</v>
       </c>
       <c r="O2" t="s">
         <v>1693</v>
@@ -7646,10 +7646,10 @@
         <v>621</v>
       </c>
       <c r="Z2" t="s">
-        <v>2220</v>
+        <v>2214</v>
       </c>
       <c r="AA2" t="s">
-        <v>2195</v>
+        <v>2189</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>16</v>
@@ -7748,16 +7748,16 @@
         <v>1688</v>
       </c>
       <c r="BI2" t="s">
-        <v>2199</v>
+        <v>2193</v>
       </c>
       <c r="BJ2" t="s">
-        <v>2196</v>
+        <v>2190</v>
       </c>
       <c r="BK2" t="s">
-        <v>2197</v>
+        <v>2191</v>
       </c>
       <c r="BL2" t="s">
-        <v>2198</v>
+        <v>2192</v>
       </c>
       <c r="BM2" t="s">
         <v>1696</v>
@@ -7766,7 +7766,7 @@
         <v>1563</v>
       </c>
       <c r="BO2" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -7833,7 +7833,7 @@
   <dimension ref="A1:BO5"/>
   <sheetViews>
     <sheetView topLeftCell="BK1" workbookViewId="0">
-      <selection activeCell="BU13" sqref="BU13"/>
+      <selection activeCell="BO1" sqref="BO1:BO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10827,7 +10827,7 @@
         <v>2156</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="AB2" s="20" t="s">
         <v>663</v>
@@ -10945,7 +10945,7 @@
         <v>2161</v>
       </c>
       <c r="BO2" s="15" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -11027,7 +11027,7 @@
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -11102,7 +11102,7 @@
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -11550,8 +11550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C579C19-DEF7-423D-B0FA-9A9767FE4E8E}">
   <dimension ref="A1:BO10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11787,7 +11787,7 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2158</v>
@@ -11820,23 +11820,23 @@
         <v>2110</v>
       </c>
       <c r="L2" s="15" t="s">
+        <v>2185</v>
+      </c>
+      <c r="M2" s="15" t="s">
         <v>2186</v>
       </c>
-      <c r="M2" s="15" t="s">
-        <v>2187</v>
-      </c>
       <c r="N2" s="15" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="P2" s="15"/>
       <c r="Q2" s="15" t="s">
+        <v>2177</v>
+      </c>
+      <c r="R2" s="15" t="s">
         <v>2178</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>2179</v>
       </c>
       <c r="S2" s="15" t="s">
         <v>660</v>
@@ -11863,7 +11863,7 @@
         <v>2156</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="AB2" s="20" t="s">
         <v>663</v>
@@ -11918,7 +11918,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="15" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="AU2" s="15" t="s">
         <v>87</v>
@@ -11933,10 +11933,10 @@
         <v>144</v>
       </c>
       <c r="AY2" s="15" t="s">
+        <v>2172</v>
+      </c>
+      <c r="AZ2" s="15" t="s">
         <v>2173</v>
-      </c>
-      <c r="AZ2" s="15" t="s">
-        <v>2174</v>
       </c>
       <c r="BA2" s="14" t="s">
         <v>420</v>
@@ -11960,28 +11960,28 @@
         <v>411</v>
       </c>
       <c r="BH2" s="15" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="BI2" s="15" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="BJ2" s="15" t="s">
+        <v>2184</v>
+      </c>
+      <c r="BK2" s="15" t="s">
         <v>2185</v>
       </c>
-      <c r="BK2" s="15" t="s">
+      <c r="BL2" s="15" t="s">
         <v>2186</v>
       </c>
-      <c r="BL2" s="15" t="s">
-        <v>2187</v>
-      </c>
       <c r="BM2" s="15" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="BN2" s="15" t="s">
         <v>2161</v>
       </c>
       <c r="BO2" s="15" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -12008,7 +12008,7 @@
       <c r="S3" s="15"/>
       <c r="T3" s="15"/>
       <c r="U3" s="15" t="s">
-        <v>2169</v>
+        <v>2232</v>
       </c>
       <c r="V3" s="15"/>
       <c r="W3" s="15"/>
@@ -13044,8 +13044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BO6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
-      <selection activeCell="BM2" sqref="BM2"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13063,7 +13063,7 @@
     <col min="24" max="24" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="26" max="26" width="49" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="41.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="39.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -13079,6 +13079,7 @@
     <col min="63" max="63" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="64" max="64" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -13280,7 +13281,7 @@
       <c r="BN1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BO1" s="16" t="s">
+      <c r="BO1" s="15" t="s">
         <v>48</v>
       </c>
     </row>
@@ -13362,7 +13363,7 @@
         <v>1654</v>
       </c>
       <c r="AA2" s="16" t="s">
-        <v>2190</v>
+        <v>2227</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>544</v>
@@ -13471,8 +13472,8 @@
       <c r="BN2" s="16" t="s">
         <v>1566</v>
       </c>
-      <c r="BO2" s="16" t="s">
-        <v>1540</v>
+      <c r="BO2" s="15" t="s">
+        <v>2230</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -13499,7 +13500,7 @@
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
       <c r="U3" s="23" t="s">
-        <v>2189</v>
+        <v>2231</v>
       </c>
       <c r="V3" s="16"/>
       <c r="W3" s="16" t="s">
@@ -14171,13 +14172,13 @@
         <v>2087</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>2200</v>
+        <v>2194</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>2201</v>
+        <v>2195</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>2211</v>
+        <v>2205</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>2163</v>
@@ -14266,13 +14267,13 @@
         <v>2088</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>2202</v>
+        <v>2196</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>1658</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>2212</v>
+        <v>2206</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
@@ -14350,13 +14351,13 @@
         <v>2089</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>2203</v>
+        <v>2197</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>1659</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>2213</v>
+        <v>2207</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
@@ -14434,13 +14435,13 @@
         <v>2090</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>2204</v>
+        <v>2198</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>1660</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>2214</v>
+        <v>2208</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
@@ -14518,13 +14519,13 @@
         <v>2091</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>1661</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>2215</v>
+        <v>2209</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
@@ -14598,13 +14599,13 @@
         <v>2092</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>2206</v>
+        <v>2200</v>
       </c>
       <c r="H7" s="16" t="s">
         <v>1662</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>2216</v>
+        <v>2210</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
@@ -14678,13 +14679,13 @@
         <v>2093</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>2207</v>
+        <v>2201</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>1663</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>2217</v>
+        <v>2211</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
@@ -14758,13 +14759,13 @@
         <v>2094</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>2208</v>
+        <v>2202</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>1664</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>2218</v>
+        <v>2212</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
@@ -14838,13 +14839,13 @@
         <v>2095</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>2209</v>
+        <v>2203</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>257</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>2219</v>
+        <v>2213</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
@@ -14918,7 +14919,7 @@
         <v>2096</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>2210</v>
+        <v>2204</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>254</v>
@@ -23091,7 +23092,7 @@
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
@@ -23212,22 +23213,22 @@
         <v>421</v>
       </c>
       <c r="C2" t="s">
-        <v>2193</v>
+        <v>2229</v>
       </c>
       <c r="E2" t="s">
-        <v>2192</v>
+        <v>2228</v>
       </c>
       <c r="F2" t="s">
         <v>1522</v>
       </c>
       <c r="G2" t="s">
-        <v>461</v>
+        <v>144</v>
       </c>
       <c r="H2" t="s">
         <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>2191</v>
+        <v>1665</v>
       </c>
       <c r="J2" t="s">
         <v>87</v>
@@ -23287,10 +23288,10 @@
         <v>352</v>
       </c>
       <c r="AC2" t="s">
-        <v>2221</v>
+        <v>2215</v>
       </c>
       <c r="AD2" t="s">
-        <v>2230</v>
+        <v>2224</v>
       </c>
       <c r="AE2" t="s">
         <v>1545</v>
@@ -23298,10 +23299,10 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC3" t="s">
-        <v>2222</v>
+        <v>2216</v>
       </c>
       <c r="AD3" t="s">
-        <v>2231</v>
+        <v>2225</v>
       </c>
       <c r="AE3" t="s">
         <v>1546</v>
@@ -23309,10 +23310,10 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC4" t="s">
-        <v>2223</v>
+        <v>2217</v>
       </c>
       <c r="AD4" t="s">
-        <v>2232</v>
+        <v>2226</v>
       </c>
       <c r="AE4" t="s">
         <v>1547</v>
@@ -23320,7 +23321,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC5" t="s">
-        <v>2224</v>
+        <v>2218</v>
       </c>
       <c r="AE5" t="s">
         <v>73</v>
@@ -23328,27 +23329,27 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC6" t="s">
-        <v>2225</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC7" t="s">
-        <v>2226</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC8" t="s">
-        <v>2227</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC9" t="s">
-        <v>2228</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC10" t="s">
-        <v>2229</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">

--- a/src/main/resources/Backup/ARC-API-STG1.xlsx
+++ b/src/main/resources/Backup/ARC-API-STG1.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1" backupFile="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8273729-8168-4C18-9C6C-81376C8299EA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr backupFile="1" defaultThemeVersion="124226" filterPrivacy="1"/>
+  <xr:revisionPtr documentId="13_ncr:1_{9B76E98D-3512-426A-9940-5EAF7AA325BA}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="0" windowWidth="20280" windowHeight="10920" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="14" firstSheet="6" windowHeight="10920" windowWidth="20280" xWindow="210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="STG" sheetId="2" r:id="rId1"/>
-    <sheet name="Credit" sheetId="13" r:id="rId2"/>
-    <sheet name="QAS" sheetId="19" r:id="rId3"/>
-    <sheet name="Emission" sheetId="20" r:id="rId4"/>
-    <sheet name="DataInput" sheetId="11" r:id="rId5"/>
-    <sheet name="Graphs" sheetId="16" r:id="rId6"/>
-    <sheet name="LEEDONLINE" sheetId="12" r:id="rId7"/>
-    <sheet name="Manual" sheetId="15" r:id="rId8"/>
-    <sheet name="Score" sheetId="14" r:id="rId9"/>
-    <sheet name="DEV" sheetId="4" r:id="rId10"/>
-    <sheet name="Material" sheetId="18" r:id="rId11"/>
-    <sheet name="MeterData" sheetId="21" r:id="rId12"/>
-    <sheet name="DEV2" sheetId="22" r:id="rId13"/>
-    <sheet name="STG2" sheetId="23" r:id="rId14"/>
-    <sheet name="QAS2" sheetId="24" r:id="rId15"/>
+    <sheet name="STG" r:id="rId1" sheetId="2"/>
+    <sheet name="Credit" r:id="rId2" sheetId="13"/>
+    <sheet name="QAS" r:id="rId3" sheetId="19"/>
+    <sheet name="Emission" r:id="rId4" sheetId="20"/>
+    <sheet name="DataInput" r:id="rId5" sheetId="11"/>
+    <sheet name="Graphs" r:id="rId6" sheetId="16"/>
+    <sheet name="LEEDONLINE" r:id="rId7" sheetId="12"/>
+    <sheet name="Manual" r:id="rId8" sheetId="15"/>
+    <sheet name="Score" r:id="rId9" sheetId="14"/>
+    <sheet name="DEV" r:id="rId10" sheetId="4"/>
+    <sheet name="Material" r:id="rId11" sheetId="18"/>
+    <sheet name="MeterData" r:id="rId12" sheetId="21"/>
+    <sheet name="DEV2" r:id="rId13" sheetId="22"/>
+    <sheet name="STG2" r:id="rId14" sheetId="23"/>
+    <sheet name="QAS2" r:id="rId15" sheetId="24"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId16"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4507" uniqueCount="2242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4781" uniqueCount="2387">
   <si>
     <t>FileID</t>
   </si>
@@ -6636,9 +6636,6 @@
     <t>70001136</t>
   </si>
   <si>
-    <t>70001138</t>
-  </si>
-  <si>
     <t>Healthcare: Outpatient Office (Diagnostic)</t>
   </si>
   <si>
@@ -6769,6 +6766,444 @@
   </si>
   <si>
     <t>2019-12-01</t>
+  </si>
+  <si>
+    <t>70001137</t>
+  </si>
+  <si>
+    <t>Bearer GZYmAVEaPfEnpLkoDQymHMujqDGdjA</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>1.0897346E7</t>
+  </si>
+  <si>
+    <t>12281</t>
+  </si>
+  <si>
+    <t>32000.0</t>
+  </si>
+  <si>
+    <t>Bearer Edw4QMNAP7CW0FF4QKwIorsqJDabs0</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Retail: Fast Food</t>
+  </si>
+  <si>
+    <t>Investor: REIT, Non-traded</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-83502</t>
+  </si>
+  <si>
+    <t>8000000617</t>
+  </si>
+  <si>
+    <t>1065309</t>
+  </si>
+  <si>
+    <t>1065308</t>
+  </si>
+  <si>
+    <t>7174983</t>
+  </si>
+  <si>
+    <t>5.648676</t>
+  </si>
+  <si>
+    <t>0.358362</t>
+  </si>
+  <si>
+    <t>0.7181607116281641</t>
+  </si>
+  <si>
+    <t>0.718161</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>Single family home (attached)</t>
+  </si>
+  <si>
+    <t>Educational: Community College, Public</t>
+  </si>
+  <si>
+    <t>US-API-Transit-Aboveground-38882</t>
+  </si>
+  <si>
+    <t>1000175344</t>
+  </si>
+  <si>
+    <t>0011048771</t>
+  </si>
+  <si>
+    <t>1065323</t>
+  </si>
+  <si>
+    <t>1065315</t>
+  </si>
+  <si>
+    <t>7174997</t>
+  </si>
+  <si>
+    <t>5.805818</t>
+  </si>
+  <si>
+    <t>0.71884</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Government Use: Other (utility, airport, etc.)</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-16211</t>
+  </si>
+  <si>
+    <t>8000000618</t>
+  </si>
+  <si>
+    <t>Bearer Z33Xxw27ID5lo0OrEKzpG0w95mUSL4</t>
+  </si>
+  <si>
+    <t>Bearer tFmjXMJYDb8vaDsGnYxwCJTBHlwmCv</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Service: Other Service</t>
+  </si>
+  <si>
+    <t>Educational: University, Private</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-94502</t>
+  </si>
+  <si>
+    <t>1000094349</t>
+  </si>
+  <si>
+    <t>0011108223</t>
+  </si>
+  <si>
+    <t>2763057</t>
+  </si>
+  <si>
+    <t>2763056</t>
+  </si>
+  <si>
+    <t>20476748</t>
+  </si>
+  <si>
+    <t>Bearer 5F8F1d5GmoLK9UJo4KNZkw39vd9RGC</t>
+  </si>
+  <si>
+    <t>GU</t>
+  </si>
+  <si>
+    <t>Public Assembly: Recreation</t>
+  </si>
+  <si>
+    <t>Educational: Community College, Private</t>
+  </si>
+  <si>
+    <t>US-API-Transit-Aboveground-50749</t>
+  </si>
+  <si>
+    <t>1000094350</t>
+  </si>
+  <si>
+    <t>0011108224</t>
+  </si>
+  <si>
+    <t>Bearer N07NgIhVI8efeH4caC0MSkRh2bCPn7</t>
+  </si>
+  <si>
+    <t>Bearer a0W37pw9miSaGbywSVscsNyMoVQO1J</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>Service: Repair Shop</t>
+  </si>
+  <si>
+    <t>Government Use: Local, County</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-16658</t>
+  </si>
+  <si>
+    <t>8000000619</t>
+  </si>
+  <si>
+    <t>tw6cX9gHBXUEwYYjRZ7jdmVn</t>
+  </si>
+  <si>
+    <t>1065393</t>
+  </si>
+  <si>
+    <t>1065394</t>
+  </si>
+  <si>
+    <t>241211</t>
+  </si>
+  <si>
+    <t>Bearer AAiKyuijk6KlaXnvM8b6CuHtRsFC4T</t>
+  </si>
+  <si>
+    <t>Bearer cqthnYxinNw8IxDDu8ooiM9ci64EXk</t>
+  </si>
+  <si>
+    <t>Bearer J4VjJbMBUw8dGmDCEJBSB9u7iQmVYP</t>
+  </si>
+  <si>
+    <t>Warehouse: Self Storage Units</t>
+  </si>
+  <si>
+    <t>Educational: College, Private</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>Healthcare: Clinic/Other Outpatient</t>
+  </si>
+  <si>
+    <t>Investor: Investment Manager</t>
+  </si>
+  <si>
+    <t>US-API-Parksmart-Parksmart-61864</t>
+  </si>
+  <si>
+    <t>Bearer 7qG1qOdDSiKT3PUWmUj7SfRYbZnRCy</t>
+  </si>
+  <si>
+    <t>Bearer 10vJbAZK2Wix73gE3BtFiUOGdb0ZCF</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Airport: Distribution Center</t>
+  </si>
+  <si>
+    <t>Government Use: Local, Public Housing Authority</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-74343</t>
+  </si>
+  <si>
+    <t>8000000136</t>
+  </si>
+  <si>
+    <t>8ixHutV4X8JUi2aHJCuaIGnu</t>
+  </si>
+  <si>
+    <t>2763091</t>
+  </si>
+  <si>
+    <t>2763092</t>
+  </si>
+  <si>
+    <t>696986</t>
+  </si>
+  <si>
+    <t>2763084</t>
+  </si>
+  <si>
+    <t>2763082</t>
+  </si>
+  <si>
+    <t>Bearer HryHYfoXibWwvW547FLcLIo191KhRn</t>
+  </si>
+  <si>
+    <t>Bearer FHqOKHwzKmcR5yVRi318g49ZzI972f</t>
+  </si>
+  <si>
+    <t>Bearer Kjci7dwGRqBLJH7PEXh2gnia8g1ZWB</t>
+  </si>
+  <si>
+    <t>Retail: Enclosed Mall</t>
+  </si>
+  <si>
+    <t>US-API-Parksmart-Parksmart-54012</t>
+  </si>
+  <si>
+    <t>Bearer rhzrt1EDLnBVdITtUDSyl9i8i62Wj4</t>
+  </si>
+  <si>
+    <t>Bearer 6SZerOMZD9ayMqQABrpTwe6rw6ngJQ</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Transit: Station</t>
+  </si>
+  <si>
+    <t>Educational: Early Childhood Education/Daycare</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-31718</t>
+  </si>
+  <si>
+    <t>8000000137</t>
+  </si>
+  <si>
+    <t>ZKjAzDJpQNmJm62EJd5vUhwB</t>
+  </si>
+  <si>
+    <t>2763121</t>
+  </si>
+  <si>
+    <t>2763119</t>
+  </si>
+  <si>
+    <t>2763128</t>
+  </si>
+  <si>
+    <t>2763129</t>
+  </si>
+  <si>
+    <t>696987</t>
+  </si>
+  <si>
+    <t>Bearer zWdAA9Lq29tfLikZGEWoWzMMukK0Qs</t>
+  </si>
+  <si>
+    <t>Bearer kZ3YGW6g92x7hiqVGlBWlSK5w9J9oB</t>
+  </si>
+  <si>
+    <t>Bearer 9CumtLo63ZVc5dM5gxNsNyVET5I7ap</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Laboratory</t>
+  </si>
+  <si>
+    <t>Government Use: Local, City</t>
+  </si>
+  <si>
+    <t>US-API-Parksmart-Parksmart-44715</t>
+  </si>
+  <si>
+    <t>Bearer HI4sVBt5N8TJoladKStYTQQXJlsDcY</t>
+  </si>
+  <si>
+    <t>Bearer FrR82d9kCxFwRwYl9ooQJWcDuy9imX</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Service: Post Office/Postal Center</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-94888</t>
+  </si>
+  <si>
+    <t>8000000138</t>
+  </si>
+  <si>
+    <t>7my6vQpEyOYDgjDo3OoRUwYZ</t>
+  </si>
+  <si>
+    <t>2763157</t>
+  </si>
+  <si>
+    <t>2763156</t>
+  </si>
+  <si>
+    <t>2763165</t>
+  </si>
+  <si>
+    <t>2763166</t>
+  </si>
+  <si>
+    <t>696988</t>
+  </si>
+  <si>
+    <t>Bearer iRroSpXjoFkvPkr1S0KW4Eue02tjmc</t>
+  </si>
+  <si>
+    <t>Bearer rFKvJu3YVC9l9AcdOLTu6Z6XlIpNtW</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>Transit: Office</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-01955</t>
+  </si>
+  <si>
+    <t>8000000139</t>
+  </si>
+  <si>
+    <t>ZY2o8XbmWEA5Qn9aGlCqVFgX</t>
+  </si>
+  <si>
+    <t>2763196</t>
+  </si>
+  <si>
+    <t>2763194</t>
+  </si>
+  <si>
+    <t>2763202</t>
+  </si>
+  <si>
+    <t>2763203</t>
+  </si>
+  <si>
+    <t>696989</t>
+  </si>
+  <si>
+    <t>Bearer hKjhjJkLZb4NdzHyLVmKYb4gfll0CA</t>
+  </si>
+  <si>
+    <t>Bearer TapqlB2QS31hFGcNdsgPvI3tuCzpRB</t>
+  </si>
+  <si>
+    <t>Lodging: Other lodging</t>
+  </si>
+  <si>
+    <t>US-API-Building-None-10516</t>
+  </si>
+  <si>
+    <t>8000000140</t>
+  </si>
+  <si>
+    <t>FctPmyte32MDwVTrpQuyBPXB</t>
+  </si>
+  <si>
+    <t>2763231</t>
+  </si>
+  <si>
+    <t>2763230</t>
+  </si>
+  <si>
+    <t>2763239</t>
+  </si>
+  <si>
+    <t>2763240</t>
+  </si>
+  <si>
+    <t>696990</t>
   </si>
 </sst>
 </file>
@@ -6876,79 +7311,79 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="164"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="3"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="3"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="3">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="3"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="4">
@@ -6993,7 +7428,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -7045,10 +7480,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -7083,7 +7518,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7135,7 +7570,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7240,7 +7675,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -7249,13 +7684,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -7265,7 +7700,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -7274,7 +7709,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -7283,7 +7718,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -7293,12 +7728,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -7329,7 +7764,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -7348,7 +7783,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -7360,8 +7795,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BP5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -7369,52 +7804,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.140625" style="15"/>
-    <col min="10" max="10" width="24.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="37.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="23.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="5.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="9.140625" style="15"/>
-    <col min="20" max="20" width="14.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="11.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="37.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="44.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="44" width="9.140625" style="15"/>
-    <col min="45" max="45" width="8.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="9.140625" style="15"/>
-    <col min="50" max="50" width="4.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="36.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="28.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="59" width="9.140625" style="15"/>
-    <col min="60" max="60" width="26.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="64" width="37.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="8.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="14.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="12.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="21.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="15" width="17.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="17.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="15" width="21.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="21.0" collapsed="true"/>
+    <col min="9" max="9" style="15" width="9.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="15" width="24.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="15" width="24.5703125" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" style="15" width="37.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="15" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="15" width="26.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="15" width="23.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="15" width="8.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="15" width="5.42578125" collapsed="true"/>
+    <col min="19" max="19" style="15" width="9.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="15" width="14.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="15" width="10.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="15" width="11.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="15" width="21.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="15" width="37.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="15" width="14.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="15" width="8.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="15" width="44.42578125" collapsed="true"/>
+    <col min="28" max="44" style="15" width="9.140625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="15" width="8.140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="15" width="5.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="15" width="8.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="15" width="13.140625" collapsed="true"/>
+    <col min="49" max="49" style="15" width="9.140625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="15" width="4.85546875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="15" width="36.42578125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="15" width="28.28515625" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="15" width="14.28515625" collapsed="true"/>
+    <col min="55" max="59" style="15" width="9.140625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="15" width="26.7109375" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="15" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="15" width="28.85546875" collapsed="true"/>
+    <col min="63" max="64" bestFit="true" customWidth="true" style="15" width="37.140625" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" style="15" width="8.7109375" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" style="15" width="14.140625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" style="15" width="12.140625" collapsed="true"/>
+    <col min="68" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -7653,13 +8088,13 @@
         <v>1551</v>
       </c>
       <c r="L2" s="15" t="s">
+        <v>2233</v>
+      </c>
+      <c r="M2" s="15" t="s">
         <v>2234</v>
       </c>
-      <c r="M2" s="15" t="s">
-        <v>2235</v>
-      </c>
       <c r="N2" s="15" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="P2" s="15" t="s">
         <v>1541</v>
@@ -7695,7 +8130,7 @@
         <v>2182</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="AB2" s="20" t="s">
         <v>16</v>
@@ -7764,10 +8199,10 @@
         <v>461</v>
       </c>
       <c r="AY2" s="15" t="s">
+        <v>2197</v>
+      </c>
+      <c r="AZ2" s="15" t="s">
         <v>2198</v>
-      </c>
-      <c r="AZ2" s="15" t="s">
-        <v>2199</v>
       </c>
       <c r="BA2" s="14" t="s">
         <v>420</v>
@@ -7791,19 +8226,19 @@
         <v>411</v>
       </c>
       <c r="BH2" s="15" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="BI2" s="15" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="BJ2" s="15" t="s">
+        <v>2232</v>
+      </c>
+      <c r="BK2" s="15" t="s">
         <v>2233</v>
       </c>
-      <c r="BK2" s="15" t="s">
+      <c r="BL2" s="15" t="s">
         <v>2234</v>
-      </c>
-      <c r="BL2" s="15" t="s">
-        <v>2235</v>
       </c>
       <c r="BM2" s="15" t="s">
         <v>1690</v>
@@ -7812,7 +8247,7 @@
         <v>1562</v>
       </c>
       <c r="BO2" s="15" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -7842,7 +8277,7 @@
       </c>
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="B4" s="31"/>
+      <c r="B4" s="27"/>
       <c r="U4" s="15" t="s">
         <v>1669</v>
       </c>
@@ -7871,14 +8306,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:BO5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:BP5"/>
   <sheetViews>
     <sheetView topLeftCell="BK1" workbookViewId="0">
       <selection activeCell="BL14" sqref="BL14"/>
@@ -7886,45 +8321,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="15"/>
-    <col min="4" max="4" width="17.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.140625" style="15"/>
-    <col min="7" max="7" width="21.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="11" width="9.140625" style="15"/>
-    <col min="12" max="13" width="37.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="9.140625" style="15"/>
-    <col min="17" max="17" width="8.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="3.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="22" width="9.140625" style="15"/>
-    <col min="23" max="23" width="21.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="39.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="44" width="9.140625" style="15"/>
-    <col min="45" max="45" width="8.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="11.7109375" style="15" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="13.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="27.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="59" width="9.140625" style="15"/>
-    <col min="60" max="60" width="33" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="64" width="37.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="9.140625" style="15"/>
-    <col min="66" max="66" width="14.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="12.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="21.28515625" collapsed="true"/>
+    <col min="3" max="3" style="15" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="15" width="17.85546875" collapsed="true"/>
+    <col min="5" max="6" style="15" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="15" width="21.140625" collapsed="true"/>
+    <col min="8" max="11" style="15" width="9.140625" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" style="15" width="37.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="15" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="15" width="26.0" collapsed="true"/>
+    <col min="16" max="16" style="15" width="9.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="15" width="8.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="15" width="3.28515625" collapsed="true"/>
+    <col min="19" max="22" style="15" width="9.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="15" width="21.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="15" width="24.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="15" width="14.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="15" width="8.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="15" width="39.7109375" collapsed="true"/>
+    <col min="28" max="44" style="15" width="9.140625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="15" width="8.140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="15" width="5.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="15" width="8.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="15" width="13.140625" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" style="15" width="11.7109375" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="15" width="4.85546875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="15" width="13.42578125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="15" width="27.7109375" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="15" width="10.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="15" width="14.28515625" collapsed="true"/>
+    <col min="55" max="59" style="15" width="9.140625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="15" width="33.0" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="15" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="15" width="28.85546875" collapsed="true"/>
+    <col min="63" max="64" bestFit="true" customWidth="true" style="15" width="37.7109375" collapsed="true"/>
+    <col min="65" max="65" style="15" width="9.140625" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" style="15" width="14.140625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" style="15" width="12.140625" collapsed="true"/>
+    <col min="68" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -8359,15 +8794,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1" xr:uid="{17C4DF22-BDC3-47AA-84A1-ADE74548616D}"/>
+    <hyperlink r:id="rId1" ref="AB2" xr:uid="{17C4DF22-BDC3-47AA-84A1-ADE74548616D}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -8375,16 +8810,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="14.85546875" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.5703125" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.5703125" style="10" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.85546875" style="10" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.85546875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" hidden="true" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="10" width="26.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="21.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="10" width="29.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="10" width="20.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="10" width="24.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>356</v>
       </c>
@@ -8410,29 +8845,29 @@
         <v>410</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -8444,17 +8879,17 @@
       <c r="C4" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -8466,11 +8901,11 @@
       <c r="C5" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -8482,13 +8917,13 @@
       <c r="C6" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="30" t="s">
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="31" t="s">
         <v>383</v>
       </c>
     </row>
@@ -8502,11 +8937,11 @@
       <c r="C7" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="30"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -8518,13 +8953,13 @@
       <c r="C8" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="30" t="s">
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="31" t="s">
         <v>384</v>
       </c>
     </row>
@@ -8538,11 +8973,11 @@
       <c r="C9" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="31"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -8557,10 +8992,10 @@
       <c r="D10" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -8584,7 +9019,7 @@
       <c r="G11" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="H11" s="28"/>
+      <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -8599,10 +9034,10 @@
       <c r="D12" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -8617,10 +9052,10 @@
       <c r="D13" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="5"/>
@@ -8661,14 +9096,14 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="D6:D7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="90" orientation="portrait" verticalDpi="90"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A323D74C-2833-4CFA-936A-10A3A7E4D88A}">
-  <dimension ref="A1:E63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A323D74C-2833-4CFA-936A-10A3A7E4D88A}">
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -8676,11 +9111,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>1553</v>
       </c>
@@ -9739,7 +10174,7 @@
         <v>1558</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>169</v>
@@ -9753,32 +10188,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A16 A2:A3">
-    <cfRule type="timePeriod" dxfId="3" priority="3" timePeriod="lastMonth">
+    <cfRule dxfId="3" priority="3" timePeriod="lastMonth" type="timePeriod">
       <formula>AND(MONTH(A2)=MONTH(EDATE(TODAY(),0-1)),YEAR(A2)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="timePeriod" dxfId="2" priority="5" timePeriod="lastMonth">
+    <cfRule dxfId="2" priority="5" timePeriod="lastMonth" type="timePeriod">
       <formula>AND(MONTH(A5)=MONTH(EDATE(TODAY(),0-1)),YEAR(A5)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:A15">
-    <cfRule type="timePeriod" dxfId="1" priority="4" timePeriod="lastMonth">
+    <cfRule dxfId="1" priority="4" timePeriod="lastMonth" type="timePeriod">
       <formula>AND(MONTH(A6)=MONTH(EDATE(TODAY(),0-1)),YEAR(A6)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="lastMonth">
+    <cfRule dxfId="0" priority="1" timePeriod="lastMonth" type="timePeriod">
       <formula>AND(MONTH(A4)=MONTH(EDATE(TODAY(),0-1)),YEAR(A4)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A650A0-BD6E-4AEB-9323-3EF52BDE1D5F}">
-  <dimension ref="A1:BO10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A650A0-BD6E-4AEB-9323-3EF52BDE1D5F}">
+  <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="Y16" sqref="Y16"/>
@@ -9786,38 +10221,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="37.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="38.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="41.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="21.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="64" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" width="37.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="38.85546875" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="41.42578125" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="63" max="64" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -10810,15 +11245,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1" xr:uid="{DF5958EA-6846-4508-867F-E5FC06CD61AD}"/>
+    <hyperlink r:id="rId1" ref="AB2" xr:uid="{DF5958EA-6846-4508-867F-E5FC06CD61AD}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3354B55-0D2B-403E-AE71-34A69AA76AB4}">
-  <dimension ref="A1:BO10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3354B55-0D2B-403E-AE71-34A69AA76AB4}">
+  <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="Z15" sqref="Z15"/>
@@ -10826,41 +11261,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="18" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="41.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="41" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="64" width="37.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.72265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.33984375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.01953125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="39.62109375" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="28.2265625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="26.5078125" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.33984375" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="26.734375" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="63" max="64" bestFit="true" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="8.64453125" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="14.12890625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -11071,7 +11507,7 @@
         <v>1715</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2147</v>
+        <v>2300</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>652</v>
@@ -11086,7 +11522,7 @@
         <v>1692</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>2097</v>
+        <v>2265</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>2116</v>
@@ -11110,11 +11546,11 @@
         <v>2121</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>2148</v>
+        <v>2301</v>
       </c>
       <c r="P2" s="15"/>
       <c r="Q2" s="15" t="s">
-        <v>2149</v>
+        <v>2302</v>
       </c>
       <c r="R2" s="15" t="s">
         <v>2118</v>
@@ -11144,7 +11580,7 @@
         <v>2145</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>2161</v>
+        <v>2307</v>
       </c>
       <c r="AB2" s="20" t="s">
         <v>662</v>
@@ -11199,7 +11635,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="15" t="s">
-        <v>1672</v>
+        <v>2310</v>
       </c>
       <c r="AU2" s="15" t="s">
         <v>87</v>
@@ -11211,13 +11647,13 @@
         <v>663</v>
       </c>
       <c r="AX2" s="15" t="s">
-        <v>461</v>
+        <v>144</v>
       </c>
       <c r="AY2" s="15" t="s">
-        <v>2156</v>
+        <v>2311</v>
       </c>
       <c r="AZ2" s="15" t="s">
-        <v>1652</v>
+        <v>2312</v>
       </c>
       <c r="BA2" s="14" t="s">
         <v>420</v>
@@ -11241,7 +11677,7 @@
         <v>411</v>
       </c>
       <c r="BH2" s="15" t="s">
-        <v>2157</v>
+        <v>2313</v>
       </c>
       <c r="BI2" s="15" t="s">
         <v>2124</v>
@@ -11256,13 +11692,13 @@
         <v>2123</v>
       </c>
       <c r="BM2" s="15" t="s">
-        <v>2151</v>
+        <v>2304</v>
       </c>
       <c r="BN2" s="15" t="s">
-        <v>2150</v>
+        <v>2303</v>
       </c>
       <c r="BO2" s="15" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="3" spans="1:67" x14ac:dyDescent="0.25">
@@ -11344,7 +11780,7 @@
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>2158</v>
+        <v>692</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -11419,7 +11855,7 @@
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>2159</v>
+        <v>717</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -11492,7 +11928,7 @@
     </row>
     <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>1682</v>
+        <v>2243</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -11565,7 +12001,7 @@
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>1685</v>
+        <v>2244</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -11638,7 +12074,7 @@
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>1686</v>
+        <v>2245</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -11711,7 +12147,7 @@
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>1687</v>
+        <v>2246</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -11784,7 +12220,7 @@
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>1683</v>
+        <v>2247</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -11857,61 +12293,61 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1" xr:uid="{0D50B1E2-43F0-4A48-9C70-C91D7B6D747A}"/>
+    <hyperlink r:id="rId1" ref="AB2" xr:uid="{0D50B1E2-43F0-4A48-9C70-C91D7B6D747A}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C579C19-DEF7-423D-B0FA-9A9767FE4E8E}">
-  <dimension ref="A1:BO10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C579C19-DEF7-423D-B0FA-9A9767FE4E8E}">
+  <dimension ref="A1:BP10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="A1:XFD1048576"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.42578125" style="25" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" style="25" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.7109375" style="25" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.140625" style="25" customWidth="1" collapsed="1"/>
-    <col min="6" max="11" width="9.140625" style="25" collapsed="1"/>
-    <col min="12" max="13" width="37.28515625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="29.140625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="9.140625" style="25" collapsed="1"/>
-    <col min="17" max="17" width="8.85546875" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="5.42578125" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="9.140625" style="25" collapsed="1"/>
-    <col min="20" max="20" width="14.42578125" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.7109375" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="11.140625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="25" width="9.140625" style="25" collapsed="1"/>
-    <col min="26" max="26" width="8.5703125" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="39" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="44" width="9.140625" style="25" collapsed="1"/>
-    <col min="45" max="45" width="8.140625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="9.140625" style="25" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="33.42578125" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="24.85546875" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="59" width="9.140625" style="25" collapsed="1"/>
-    <col min="60" max="60" width="27.140625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="64" width="37.28515625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="8.7109375" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="12.85546875" style="25" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="12.140625" style="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="16384" width="9.140625" style="25" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="25" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="25" width="21.33984375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="25" width="17.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="25" width="20.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="25" width="17.140625" collapsed="true"/>
+    <col min="6" max="11" style="25" width="9.140625" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" style="25" width="37.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="25" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="25" width="29.46484375" collapsed="true"/>
+    <col min="16" max="16" style="25" width="9.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="25" width="8.83984375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="25" width="5.42578125" collapsed="true"/>
+    <col min="19" max="19" style="25" width="9.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="25" width="14.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="25" width="10.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="25" width="11.140625" collapsed="true"/>
+    <col min="23" max="25" style="25" width="9.140625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="25" width="8.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="25" width="38.44921875" collapsed="true"/>
+    <col min="28" max="44" style="25" width="9.140625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="25" width="8.1796875" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="25" width="5.66796875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="25" width="8.30859375" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="25" width="13.1796875" collapsed="true"/>
+    <col min="49" max="49" style="25" width="9.140625" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="25" width="4.84375" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="25" width="13.6015625" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="25" width="44.15234375" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="25" width="10.33984375" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="25" width="14.2265625" collapsed="true"/>
+    <col min="55" max="59" style="25" width="9.140625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="25" width="26.734375" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="25" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="25" width="28.85546875" collapsed="true"/>
+    <col min="63" max="64" bestFit="true" customWidth="true" style="25" width="37.28515625" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" style="25" width="8.64453125" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" style="25" width="14.12890625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" style="25" width="12.140625" collapsed="true"/>
+    <col min="68" max="16384" style="25" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -12119,10 +12555,10 @@
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>2203</v>
+        <v>2380</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>652</v>
@@ -12161,25 +12597,25 @@
         <v>447</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>2204</v>
+        <v>2381</v>
       </c>
       <c r="Q2" s="25" t="s">
+        <v>2384</v>
+      </c>
+      <c r="R2" s="25" t="s">
         <v>2206</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>2207</v>
       </c>
       <c r="S2" s="25" t="s">
         <v>659</v>
       </c>
       <c r="T2" s="25" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="U2" s="25" t="s">
+        <v>2200</v>
+      </c>
+      <c r="V2" s="25" t="s">
         <v>2201</v>
-      </c>
-      <c r="V2" s="25" t="s">
-        <v>2202</v>
       </c>
       <c r="W2" s="25" t="s">
         <v>2120</v>
@@ -12191,10 +12627,10 @@
         <v>620</v>
       </c>
       <c r="Z2" s="25" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="AA2" s="25" t="s">
-        <v>2231</v>
+        <v>2377</v>
       </c>
       <c r="AB2" s="26" t="s">
         <v>662</v>
@@ -12248,7 +12684,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="25" t="s">
-        <v>2216</v>
+        <v>2334</v>
       </c>
       <c r="AU2" s="25" t="s">
         <v>87</v>
@@ -12260,13 +12696,13 @@
         <v>663</v>
       </c>
       <c r="AX2" s="25" t="s">
-        <v>144</v>
+        <v>461</v>
       </c>
       <c r="AY2" s="25" t="s">
-        <v>2217</v>
+        <v>2378</v>
       </c>
       <c r="AZ2" s="25" t="s">
-        <v>2218</v>
+        <v>1652</v>
       </c>
       <c r="BA2" s="24" t="s">
         <v>420</v>
@@ -12290,10 +12726,10 @@
         <v>411</v>
       </c>
       <c r="BH2" s="25" t="s">
-        <v>2219</v>
+        <v>2379</v>
       </c>
       <c r="BI2" s="25" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="BJ2" s="25" t="s">
         <v>447</v>
@@ -12305,10 +12741,10 @@
         <v>447</v>
       </c>
       <c r="BM2" s="25" t="s">
-        <v>2208</v>
+        <v>2386</v>
       </c>
       <c r="BN2" s="25" t="s">
-        <v>2150</v>
+        <v>2385</v>
       </c>
       <c r="BO2" s="25" t="s">
         <v>2160</v>
@@ -12319,7 +12755,7 @@
         <v>1559</v>
       </c>
       <c r="U3" s="25" t="s">
-        <v>2197</v>
+        <v>2241</v>
       </c>
       <c r="AD3" s="26" t="s">
         <v>540</v>
@@ -12330,7 +12766,7 @@
     </row>
     <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="K4" s="25" t="s">
         <v>1629</v>
@@ -12341,7 +12777,7 @@
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="K5" s="25" t="s">
         <v>1629</v>
@@ -12357,7 +12793,7 @@
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="K7" s="25" t="s">
         <v>1629</v>
@@ -12365,7 +12801,7 @@
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="K8" s="25" t="s">
         <v>1630</v>
@@ -12373,7 +12809,7 @@
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="K9" s="25" t="s">
         <v>1631</v>
@@ -12381,7 +12817,7 @@
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="K10" s="25" t="s">
         <v>1625</v>
@@ -12389,15 +12825,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1" xr:uid="{CBB4546A-84E3-4AA0-844F-4EF590542F3D}"/>
+    <hyperlink r:id="rId1" ref="AB2" xr:uid="{CBB4546A-84E3-4AA0-844F-4EF590542F3D}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
@@ -12405,12 +12841,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="25.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -12849,13 +13285,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BO6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:BP6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -12863,36 +13299,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="49" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="39" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="33" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="37.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.33984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="5.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="49.0" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="41.87890625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="8.1796875" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="5.66796875" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="8.30859375" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="13.1796875" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="4.84375" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="20.62109375" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="28.96875" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.33984375" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="14.2265625" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="26.734375" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.25">
@@ -13103,7 +13540,7 @@
         <v>1579</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1677</v>
+        <v>2282</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>633</v>
@@ -13118,7 +13555,7 @@
         <v>1547</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>1552</v>
+        <v>2292</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>1548</v>
@@ -13176,7 +13613,7 @@
         <v>1653</v>
       </c>
       <c r="AA2" s="16" t="s">
-        <v>2230</v>
+        <v>2287</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>544</v>
@@ -13231,7 +13668,7 @@
         <v>86</v>
       </c>
       <c r="AT2" s="16" t="s">
-        <v>1673</v>
+        <v>2288</v>
       </c>
       <c r="AU2" s="16" t="s">
         <v>87</v>
@@ -13243,13 +13680,13 @@
         <v>663</v>
       </c>
       <c r="AX2" s="16" t="s">
-        <v>461</v>
+        <v>144</v>
       </c>
       <c r="AY2" s="16" t="s">
-        <v>1674</v>
+        <v>2289</v>
       </c>
       <c r="AZ2" s="16" t="s">
-        <v>1675</v>
+        <v>2290</v>
       </c>
       <c r="BA2" s="17" t="s">
         <v>420</v>
@@ -13273,7 +13710,7 @@
         <v>411</v>
       </c>
       <c r="BH2" s="16" t="s">
-        <v>1676</v>
+        <v>2291</v>
       </c>
       <c r="BI2" s="16"/>
       <c r="BJ2" s="16"/>
@@ -13500,14 +13937,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AD7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
@@ -13515,36 +13952,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="26.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="26.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="28.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.83984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="23.890625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.39453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.765625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="23.890625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.51171875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.39453125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.15234375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="26.890625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="25.9296875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="28.17578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -13656,25 +14093,25 @@
         <v>619</v>
       </c>
       <c r="F2" t="s">
-        <v>2098</v>
+        <v>2284</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>416</v>
       </c>
       <c r="H2" t="s">
-        <v>2099</v>
+        <v>2285</v>
       </c>
       <c r="I2" t="s">
-        <v>2100</v>
+        <v>2286</v>
       </c>
       <c r="J2" t="s">
         <v>1514</v>
       </c>
       <c r="K2" t="s">
-        <v>2101</v>
+        <v>2257</v>
       </c>
       <c r="L2" t="s">
-        <v>2102</v>
+        <v>2258</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>1337</v>
@@ -13683,19 +14120,19 @@
         <v>1515</v>
       </c>
       <c r="O2" t="s">
-        <v>1514</v>
+        <v>2259</v>
       </c>
       <c r="P2" t="s">
         <v>1516</v>
       </c>
       <c r="Q2" t="s">
-        <v>2101</v>
+        <v>1512</v>
       </c>
       <c r="R2" t="s">
         <v>1513</v>
       </c>
       <c r="S2" t="s">
-        <v>2102</v>
+        <v>2260</v>
       </c>
       <c r="T2" t="s">
         <v>1512</v>
@@ -13830,13 +14267,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:BN281"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AF281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
@@ -13844,30 +14281,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="18" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="66" width="9.140625" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="21.54296875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="15.78125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="65" max="66" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -14030,7 +14467,7 @@
         <v>60</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>2211</v>
+        <v>2323</v>
       </c>
       <c r="W2" s="15" t="s">
         <v>1518</v>
@@ -14054,10 +14491,10 @@
         <v>200</v>
       </c>
       <c r="AD2" t="s">
-        <v>2117</v>
+        <v>2293</v>
       </c>
       <c r="AE2" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -14117,7 +14554,7 @@
         <v>60</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="W3" s="15" t="s">
         <v>1517</v>
@@ -14141,7 +14578,7 @@
         <v>200</v>
       </c>
       <c r="AE3" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -14201,7 +14638,7 @@
         <v>60</v>
       </c>
       <c r="V4" s="16" t="s">
-        <v>2213</v>
+        <v>2383</v>
       </c>
       <c r="W4" s="15" t="s">
         <v>1519</v>
@@ -14225,7 +14662,7 @@
         <v>199</v>
       </c>
       <c r="AE4" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -14285,7 +14722,7 @@
         <v>60</v>
       </c>
       <c r="V5" s="16" t="s">
-        <v>2214</v>
+        <v>2382</v>
       </c>
       <c r="W5" s="15" t="s">
         <v>1520</v>
@@ -14309,7 +14746,7 @@
         <v>199</v>
       </c>
       <c r="AE5" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -14389,7 +14826,7 @@
         <v>99</v>
       </c>
       <c r="AE6" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -14469,7 +14906,7 @@
         <v>199</v>
       </c>
       <c r="AE7" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
@@ -14549,7 +14986,7 @@
         <v>99</v>
       </c>
       <c r="AE8" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -14629,7 +15066,7 @@
         <v>299</v>
       </c>
       <c r="AE9" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
@@ -14709,7 +15146,7 @@
         <v>100</v>
       </c>
       <c r="AE10" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -14789,7 +15226,7 @@
         <v>222</v>
       </c>
       <c r="AE11" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -14865,7 +15302,7 @@
         <v>88</v>
       </c>
       <c r="AE12" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -14931,7 +15368,7 @@
         <v>99</v>
       </c>
       <c r="AE13" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
@@ -21539,14 +21976,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AI15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:AJ15"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="AF18" sqref="AF18"/>
@@ -21554,40 +21991,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="12" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.85546875" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="7.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="14.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="6" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="11.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="9.140625" style="15" collapsed="1"/>
-    <col min="25" max="25" width="11" style="15" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="37" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6.5703125" style="15" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="13.7109375" style="15" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="6.28515625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="6.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="15.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="14.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="16.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="9.42578125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="17.140625" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="11.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" style="15" width="12.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="15" width="10.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="15" width="9.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="15" width="10.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="15" width="11.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="15" width="8.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="15" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="15" width="9.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="15" width="13.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="15" width="7.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="15" width="10.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="15" width="13.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="15" width="14.42578125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="15" width="15.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="15" width="14.42578125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="15" width="14.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="15" width="6.0" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="15" width="11.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="15" width="8.7109375" collapsed="true"/>
+    <col min="23" max="24" style="15" width="9.140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="15" width="11.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="15" width="37.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="15" width="6.5703125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="15" width="6.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="15" width="6.7109375" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="15" width="15.5703125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="15" width="14.7109375" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="15" width="16.5703125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="15" width="9.42578125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="15" width="17.140625" collapsed="true"/>
+    <col min="36" max="16384" style="15" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
@@ -22887,13 +23324,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AE12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="AC2" sqref="AC2"/>
@@ -22901,26 +23338,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="32" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="22" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="28" width="36.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="31" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="4.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="5.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="21" max="22" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="26" max="28" bestFit="true" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="29" max="31" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
@@ -23026,10 +23463,10 @@
         <v>421</v>
       </c>
       <c r="C2" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="E2" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="F2" t="s">
         <v>1521</v>
@@ -23041,7 +23478,7 @@
         <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="J2" t="s">
         <v>87</v>
@@ -23177,15 +23614,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink r:id="rId1" ref="Q2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:G14"/>
@@ -23193,9 +23630,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="4" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="7" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="2" max="4" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="7" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -23475,14 +23912,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:O366"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:P366"/>
   <sheetViews>
     <sheetView topLeftCell="A329" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
@@ -23490,8 +23927,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -29372,6 +29809,6 @@
       <c r="O366" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>